--- a/testdata/samples/packages/xls/packages_registry.redhat.io_redhat_certified_operator_index_v4.8_2021-05-14.xlsx
+++ b/testdata/samples/packages/xls/packages_registry.redhat.io_redhat_certified_operator_index_v4.8_2021-05-14.xlsx
@@ -38,7 +38,7 @@
             <color indexed="81"/>
             <sz val="9"/>
           </rPr>
-          <t>[olm-status-descriptors olm-spec-descriptors olm-crds-have-resources]</t>
+          <t>[olm-spec-descriptors olm-crds-have-resources olm-status-descriptors]</t>
         </r>
       </text>
     </comment>
@@ -61,7 +61,7 @@
             <color indexed="81"/>
             <sz val="9"/>
           </rPr>
-          <t>[olm-status-descriptors olm-spec-descriptors olm-crds-have-resources]</t>
+          <t>[olm-crds-have-resources olm-status-descriptors olm-spec-descriptors]</t>
         </r>
       </text>
     </comment>
@@ -93,67 +93,67 @@
     <t>sha256:414ec051c4eec31a9f8e0e51eb4e0aa92653ca6b1d1c3da6cef92cb4bd21d0ed</t>
   </si>
   <si>
+    <t>Is Multiple Channel</t>
+  </si>
+  <si>
+    <t>Has Infrastructure Support</t>
+  </si>
+  <si>
+    <t>Has possible performance issues</t>
+  </si>
+  <si>
+    <t>Has v1beta1 CRD?</t>
+  </si>
+  <si>
+    <t>Has webhooks?</t>
+  </si>
+  <si>
+    <t>Has Scorecard Falling Tests</t>
+  </si>
+  <si>
+    <t>Has Support for Single Namespaces</t>
+  </si>
+  <si>
+    <t>Has Support for Own Namespaces</t>
+  </si>
+  <si>
+    <t>Build Dates (from index image)</t>
+  </si>
+  <si>
     <t>Has Validator Errors</t>
   </si>
   <si>
+    <t>Has Invalid Versioning</t>
+  </si>
+  <si>
+    <t>Has Support for All Namespaces</t>
+  </si>
+  <si>
+    <t>Has Dependency</t>
+  </si>
+  <si>
+    <t>OCP Labels</t>
+  </si>
+  <si>
+    <t>Issues (To process this report)</t>
+  </si>
+  <si>
+    <t>Package Name</t>
+  </si>
+  <si>
     <t>Has Scorecard Warnings</t>
   </si>
   <si>
-    <t>Has Invalid Versioning</t>
-  </si>
-  <si>
-    <t>Has Support for All Namespaces</t>
-  </si>
-  <si>
-    <t>Has Infrastructure Support</t>
+    <t>Has Invalid SkipRange</t>
+  </si>
+  <si>
+    <t>Has Multiple Architectures</t>
   </si>
   <si>
     <t>Has Scorecard Suggestions</t>
   </si>
   <si>
-    <t>Has v1beta1 CRD?</t>
-  </si>
-  <si>
-    <t>Has webhooks?</t>
-  </si>
-  <si>
-    <t>Has Multiple Architectures</t>
-  </si>
-  <si>
-    <t>Has Invalid SkipRange</t>
-  </si>
-  <si>
-    <t>Has Dependency</t>
-  </si>
-  <si>
-    <t>Has possible performance issues</t>
-  </si>
-  <si>
-    <t>Package Name</t>
-  </si>
-  <si>
-    <t>Has Support for Single Namespaces</t>
-  </si>
-  <si>
     <t>Has Support for Multi Namespaces</t>
-  </si>
-  <si>
-    <t>Build Dates (from index image)</t>
-  </si>
-  <si>
-    <t>Is Multiple Channel</t>
-  </si>
-  <si>
-    <t>Has Support for Own Namespaces</t>
-  </si>
-  <si>
-    <t>OCP Labels</t>
-  </si>
-  <si>
-    <t>Issues (To process this report)</t>
-  </si>
-  <si>
-    <t>Has Scorecard Falling Tests</t>
   </si>
   <si>
     <t>alcide-kaudit-operator</t>
@@ -566,67 +566,67 @@
     </row>
     <row r="5" ht="15" customHeight="true">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="O5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="T5" t="s">
         <v>20</v>
       </c>
-      <c r="O5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="U5" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="true">
